--- a/Documentation/SampleData.xlsx
+++ b/Documentation/SampleData.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
